--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26615.33650036447</v>
+        <v>23883.75703854009</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>307.638123721567</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>214.8257981203124</v>
       </c>
       <c r="W2" t="n">
-        <v>104.5402978568768</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>181.6003046072406</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>172.2075379833797</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>150.8501064834353</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>303.5358871468774</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>1.776742514823899</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.60954681717764</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>107.1821924454409</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012251</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.0778715955696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>186.9015203136212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>91.84948075323962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>76.17049831699767</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>72.31842549662716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96788793061754</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>230.0898280815562</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.8873540667203</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.5667167289874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1119.439330875755</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>750.476813935343</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>750.476813935343</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>364.6885613370988</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>364.6885613370988</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>364.6885613370988</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2248.947158185802</v>
       </c>
       <c r="W2" t="n">
-        <v>1986.826586715716</v>
+        <v>1896.178502915688</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.826586715716</v>
+        <v>1896.178502915688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>1506.039170939876</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>702.55736257324</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>702.55736257324</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T4" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U4" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2337.536952213968</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2337.536952213968</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>2337.536952213968</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1947.397620238156</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1764.194881475117</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="C8" t="n">
-        <v>1395.232364534705</v>
+        <v>1528.632121747102</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.966665927955</v>
+        <v>1170.366423140352</v>
       </c>
       <c r="E8" t="n">
-        <v>651.1784133297106</v>
+        <v>784.5781705421075</v>
       </c>
       <c r="F8" t="n">
-        <v>644.2329125805071</v>
+        <v>777.632669792904</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>360.5448880293315</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>637.4491018485699</v>
       </c>
       <c r="L8" t="n">
-        <v>1026.437034711773</v>
+        <v>1190.262360094769</v>
       </c>
       <c r="M8" t="n">
-        <v>1658.154845695085</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.93405351505</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.794721539239</v>
+        <v>1897.594638687514</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.3445162338941</v>
+        <v>372.6664662373168</v>
       </c>
       <c r="C10" t="n">
-        <v>224.3445162338941</v>
+        <v>372.6664662373168</v>
       </c>
       <c r="D10" t="n">
-        <v>224.3445162338941</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="E10" t="n">
-        <v>224.3445162338941</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="F10" t="n">
-        <v>224.3445162338941</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>55.73767122927748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>775.1075102110866</v>
       </c>
       <c r="V10" t="n">
-        <v>923.3997019991118</v>
+        <v>775.1075102110866</v>
       </c>
       <c r="W10" t="n">
-        <v>633.9825319621511</v>
+        <v>775.1075102110866</v>
       </c>
       <c r="X10" t="n">
-        <v>405.9929810641338</v>
+        <v>775.1075102110866</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.9929810641338</v>
+        <v>554.3149310675565</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5039,25 +5039,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194625</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>746.1673476194625</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>598.2542540370694</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>451.364306539159</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>284.1682072540389</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690899</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473694</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264822</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.671666052305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,10 +6309,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3079.453861511889</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868831</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456495</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3999.301626420636</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.884456383676</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3481.894905485658</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3261.102326342128</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,16 +6786,16 @@
         <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1268.333101637269</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,34 +7163,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,13 +7257,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.955532171245</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>315.4576428685623</v>
       </c>
       <c r="L8" t="n">
-        <v>412.5899333704313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>96.12069185784512</v>
+        <v>163.3181754619432</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-2.410024352785539e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.28464904279021</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>186.0823930769429</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.112520400783</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856684</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.506781756525186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.8601746357975</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>72.44497470121469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.3662399606954</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>94.92839560200068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>70.46607471595163</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.43317025503481</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.94462611521701</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.26526345294985</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794694</v>
+        <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457133</v>
@@ -26332,28 +26332,28 @@
         <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="J2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682748</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682737</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682798</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="N4" t="n">
-        <v>5677.536566682705</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682761</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541600.7232488526</v>
+        <v>-541787.1166373915</v>
       </c>
       <c r="C6" t="n">
-        <v>35635.21441927049</v>
+        <v>35635.2144192706</v>
       </c>
       <c r="D6" t="n">
         <v>-120168.5916745245</v>
       </c>
       <c r="E6" t="n">
-        <v>-554994.1178953939</v>
+        <v>-555028.8558208294</v>
       </c>
       <c r="F6" t="n">
-        <v>216058.5734854128</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="G6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="H6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="I6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="J6" t="n">
-        <v>39635.35429281964</v>
+        <v>39600.61636738424</v>
       </c>
       <c r="K6" t="n">
-        <v>216058.5734854124</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="L6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="M6" t="n">
-        <v>91850.06277735422</v>
+        <v>91815.32485191824</v>
       </c>
       <c r="N6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="O6" t="n">
-        <v>216058.5734854128</v>
+        <v>216023.8355599771</v>
       </c>
       <c r="P6" t="n">
-        <v>216058.5734854127</v>
+        <v>216023.8355599767</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>112.9264603498225</v>
       </c>
       <c r="W2" t="n">
-        <v>58.61827778359336</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>146.1519538628943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>48.95472227133658</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.50211740565743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>262.0667974625015</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>11.50499692833819</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9353541544087</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>233.6511078409194</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.428838339121782e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M12" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,10 +32081,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>430.400187030115</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,10 +32567,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>447.1326187913569</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>518.0009690113193</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33977,16 +33977,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394823</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34445,19 +34445,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>144.237359508534</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34778,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34936,7 +34936,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>398.8547687014839</v>
       </c>
       <c r="L8" t="n">
-        <v>553.3259493716971</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>296.7840672645771</v>
+        <v>363.9815508686752</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M12" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>313.1582113770266</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204766</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>386.659256927986</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>6.395920534175052</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
